--- a/06-03-2023/data/output/xlsx/sample_0/category__12.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="166">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,21 +52,48 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -91,31 +118,202 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
@@ -124,6 +322,42 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -154,9 +388,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -187,193 +418,58 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
@@ -383,102 +479,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -634,30 +634,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.007150153217568948</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.008474576271186441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.009708737864077669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005050505050505051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,10 +790,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$9</c:f>
+              <c:f>MultsDivs!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -793,16 +805,40 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$9</c:f>
+              <c:f>MultsDivs!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.0106951871657754</c:v>
                 </c:pt>
@@ -810,9 +846,33 @@
                   <c:v>0.007042253521126761</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.01075268817204301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0136986301369863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01851851851851852</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02702702702702703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -934,30 +994,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.007021063189568706</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.007063572149344097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00927643784786642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01453488372093023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02450980392156863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03703703703703703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,30 +1180,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$7</c:f>
+              <c:f>Decimals!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$7</c:f>
+              <c:f>Decimals!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.003215434083601286</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.002032520325203252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00273972602739726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003952569169960474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005988023952095809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.007936507936507936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02439024390243903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,30 +1366,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.007014028056112225</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0102489019033675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04210526315789474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0576923076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,30 +1552,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.005025125628140704</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01273885350318471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.06914503782858687</v>
+        <v>0.06914503782858686</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2052,20 +2244,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E5" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.1522820615369327</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2073,28 +2267,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -2107,15 +2301,15 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -2128,15 +2322,15 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2149,15 +2343,15 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -2170,15 +2364,15 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -2191,15 +2385,15 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2212,15 +2406,15 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2233,30 +2427,28 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.009708737864077669</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.1522820615369327</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2264,20 +2456,20 @@
         <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.005050505050505051</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2285,7 +2477,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2298,7 +2490,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2306,7 +2498,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2319,7 +2511,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2327,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2340,7 +2532,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2348,7 +2540,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2361,7 +2553,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2369,7 +2561,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2382,7 +2574,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2390,7 +2582,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2403,7 +2595,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2411,235 +2603,257 @@
         <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.003215434083601286</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="E22" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.03671315055670112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.002032520325203252</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E23" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.03655117447902785</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E24" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0515948851774131</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E25" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.07233315394003209</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E26" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.07897751196815109</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
         <v>37</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E27" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.08957394142494593</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E28" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1705393453782807</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E29" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.1897374389140064</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E30" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2168139616773281</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E31" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2468729150804625</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.3047036073849138</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2648,43 +2862,45 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
+      <c r="F33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.4400138679041399</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00273972602739726</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2697,405 +2913,415 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.007021063189568706</v>
       </c>
       <c r="E36" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.06638773945430622</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.007063572149344097</v>
       </c>
       <c r="E37" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
+      <c r="F37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.0664064123546388</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.00927643784786642</v>
       </c>
       <c r="E38" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
+      <c r="F38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.06696671043550993</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="E39" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.06907917427766949</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="E40" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>14</v>
+      <c r="F40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.0741967176776622</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E41" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>14</v>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.08017782599101606</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E42" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>14</v>
+      <c r="F42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.09647759816357537</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E43" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>14</v>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.05911412264177764</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E44" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
+      <c r="F44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.1051725303034043</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.003952569169960474</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.005988023952095809</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007936507936507936</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.02162560491423251</v>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.04556396662782383</v>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.07755460552218942</v>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E50" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.09226043277932056</v>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E51" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
+      <c r="F51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.07048813309006827</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007021063189568706</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E52" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G52" s="1">
-        <v>0.06638773945430625</v>
+        <v>0.08754697992105123</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007063572149344097</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.06640641235463883</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3108,15 +3334,15 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3129,15 +3355,15 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3150,15 +3376,15 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3171,559 +3397,527 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00927643784786642</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.06696671043550995</v>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.01453488372093023</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.06907917427766949</v>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02450980392156863</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.07419671767766221</v>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.08017782599101608</v>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.03260869565217391</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.09647759816357539</v>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.05911412264177764</v>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.1051725303034043</v>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.003215434083601286</v>
       </c>
       <c r="E65" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0106951871657754</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="E66" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.03671315055670112</v>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.007042253521126761</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="E67" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.03655117447902785</v>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.2</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E68" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.3047036073849139</v>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E69" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.4400138679041399</v>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E70" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
+      <c r="F70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.02162560491423251</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E71" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
+      <c r="F71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.04556396662782383</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.01075268817204301</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E72" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G72" s="1">
-        <v>0.05159488517741309</v>
+        <v>0.07755460552218942</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E73" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G73" s="1">
-        <v>0.07233315394003209</v>
+        <v>0.09226043277932056</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.07897751196815109</v>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.02702702702702703</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.08957394142494592</v>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.1705393453782807</v>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.1897374389140064</v>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.2168139616773281</v>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.2468729150804625</v>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.007014028056112225</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.0102489019033675</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.08583020209964762</v>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3736,15 +3930,15 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3757,15 +3951,15 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3778,30 +3972,28 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.04210526315789474</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.1076735177123741</v>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3809,145 +4001,133 @@
         <v>123</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.0576923076923077</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.1315986578175456</v>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.1714114712464571</v>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.3250800993854617</v>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.3689501692138874</v>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
       </c>
       <c r="D90" s="1">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.417085704374432</v>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.492059220915993</v>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3960,242 +4140,254 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.01273885350318471</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.07048813309006827</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.007014028056112225</v>
       </c>
       <c r="E95" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.0102489019033675</v>
       </c>
       <c r="E96" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
+      <c r="F96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.0858302020996476</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="E97" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>14</v>
+      <c r="F97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.1076735177123741</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="E98" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>14</v>
+      <c r="F98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.1315986578175456</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E99" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>14</v>
+      <c r="F99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.1714114712464571</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E100" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G100" s="1">
-        <v>0.08754697992105123</v>
+        <v>0.3250800993854615</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E101" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>14</v>
+      <c r="F101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.3689501692138873</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E102" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>14</v>
+      <c r="F102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.417085704374432</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E103" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>14</v>
+      <c r="F103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.4920592209159932</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4203,7 +4395,7 @@
         <v>149</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4216,7 +4408,7 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4224,7 +4416,7 @@
         <v>150</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4237,7 +4429,7 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4245,7 +4437,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4258,7 +4450,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4266,7 +4458,7 @@
         <v>152</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4279,7 +4471,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4288,155 +4480,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>979</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.007150153217568948</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.007014028056112225</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0001361251614567238</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <v>826</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.008474576271186441</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.007014028056112225</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.001460548215074216</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -4449,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4495,7 +4538,242 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>979</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.007150153217568948</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0001361251614567238</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>826</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.008474576271186441</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.001460548215074216</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.009708737864077669</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.002694709807965445</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.005050505050505051</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.001963523005607174</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4538,7 +4816,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4581,22 +4859,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
         <v>93</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E6" s="3">
         <v>0.007014028056112225</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1929859719438878</v>
+        <v>0.003738660115930787</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4624,22 +4902,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E7" s="3">
         <v>0.007014028056112225</v>
       </c>
       <c r="F7" s="1">
-        <v>0.3263193052772211</v>
+        <v>0.006684602080874076</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4662,6 +4940,350 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01150449046240629</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0200129989709148</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.03844051739843323</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.05180950135565248</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.08389506285297868</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1179859719438878</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1929859719438878</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.3263193052772211</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4673,7 +5295,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4730,7 +5352,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4773,7 +5395,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4811,6 +5433,307 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.00927643784786642</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.002262409791754195</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01453488372093023</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.007520855664818008</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.02450980392156863</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0174957758654564</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.02239773664977013</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02559466759606169</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.03002300898092481</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.02155740051531635</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -4822,7 +5745,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4879,7 +5802,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4922,7 +5845,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4960,6 +5883,307 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.00273972602739726</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.004274302028714964</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.003952569169960474</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.00306145888615175</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.005988023952095809</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.001026004104016416</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.007936507936507936</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0009224798803957115</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.004750677826240716</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.008370587328503161</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.0173762158463268</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -4971,7 +6195,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5028,7 +6252,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5071,7 +6295,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5109,6 +6333,307 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.04210526315789474</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.03509123510178251</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.05067827963619547</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0799424936830182</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1358431148010306</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1748041537620696</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2787002576581735</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.3929859719438878</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5120,7 +6645,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5177,7 +6702,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5220,7 +6745,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5258,6 +6783,49 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.007014028056112225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01965263861055444</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__12.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__12.xlsx
@@ -52,19 +52,19 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
@@ -118,76 +118,247 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__12</t>
@@ -196,73 +367,67 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
@@ -271,13 +436,13 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -314,171 +479,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,pairs_of_parentheses__1,pairs_of_parentheses__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.06914503782858686</v>
+        <v>0.06914503782858687</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2603,283 +2603,267 @@
         <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0106951871657754</v>
+        <v>0.003215434083601286</v>
       </c>
       <c r="E22" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.03671315055670112</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.007042253521126761</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="E23" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.03655117447902785</v>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01075268817204301</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="E24" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.0515948851774131</v>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E25" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.07233315394003209</v>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01851851851851852</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E26" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.07897751196815109</v>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02702702702702703</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E27" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1">
-        <v>0.08957394142494593</v>
+        <v>0.02162560491423252</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1">
-        <v>0.1705393453782807</v>
+        <v>0.04556396662782383</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1">
-        <v>0.1897374389140064</v>
+        <v>0.07755460552218942</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E30" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1">
-        <v>0.2168139616773281</v>
+        <v>0.09226043277932054</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.2468729150804625</v>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.3047036073849138</v>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.4400138679041399</v>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2897,10 +2881,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2918,217 +2902,199 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007021063189568706</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.06638773945430622</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.007063572149344097</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.0664064123546388</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00927643784786642</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.06696671043550993</v>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01453488372093023</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.06907917427766949</v>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.02450980392156863</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.0741967176776622</v>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.08017782599101606</v>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03260869565217391</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.09647759816357537</v>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.05911412264177764</v>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.1051725303034043</v>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -3146,10 +3112,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -3167,10 +3133,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3188,7 +3154,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3209,7 +3175,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3230,16 +3196,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.005025125628140704</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.007014028056112225</v>
@@ -3251,224 +3217,238 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01273885350318471</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.07048813309006827</v>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.007021063189568706</v>
       </c>
       <c r="E52" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G52" s="1">
-        <v>0.08754697992105123</v>
+        <v>0.06638773945430625</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.007063572149344097</v>
       </c>
       <c r="E53" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>16</v>
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.06640641235463883</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.00927643784786642</v>
       </c>
       <c r="E54" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>16</v>
+      <c r="F54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.06696671043550995</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="E55" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>16</v>
+      <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.06907917427766949</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="E56" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>16</v>
+      <c r="F56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.07419671767766221</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E57" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>16</v>
+      <c r="F57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.08017782599101607</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E58" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
+      <c r="F58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.09647759816357539</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E59" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>16</v>
+      <c r="F59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.05911412264177764</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E60" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>16</v>
+      <c r="F60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.1051725303034043</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3486,10 +3466,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3507,10 +3487,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3528,7 +3508,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3549,16 +3529,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003215434083601286</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.007014028056112225</v>
@@ -3570,270 +3550,286 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.002032520325203252</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="E66" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>16</v>
+      <c r="F66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.03671315055670112</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.00273972602739726</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E67" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>16</v>
+      <c r="F67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.03655117447902785</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003952569169960474</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E68" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>16</v>
+      <c r="F68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.05159488517741309</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.005988023952095809</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E69" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>16</v>
+      <c r="F69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.07233315394003209</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.007936507936507936</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E70" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G70" s="1">
-        <v>0.02162560491423251</v>
+        <v>0.07897751196815107</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.01176470588235294</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E71" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G71" s="1">
-        <v>0.04556396662782383</v>
+        <v>0.08957394142494592</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.01538461538461539</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E72" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G72" s="1">
-        <v>0.07755460552218942</v>
+        <v>0.1705393453782807</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E73" s="1">
         <v>0.007014028056112225</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G73" s="1">
-        <v>0.09226043277932056</v>
+        <v>0.1897374389140064</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E74" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>16</v>
+      <c r="F74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.2168139616773281</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E75" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>16</v>
+      <c r="F75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.2468729150804625</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E76" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>16</v>
+      <c r="F76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.3047036073849139</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E77" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>16</v>
+      <c r="F77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.4400138679041399</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3851,10 +3847,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3872,16 +3868,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.007014028056112225</v>
       </c>
       <c r="E80" s="1">
         <v>0.007014028056112225</v>
@@ -3893,44 +3889,48 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.0102489019033675</v>
       </c>
       <c r="E81" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>16</v>
+      <c r="F81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.08583020209964762</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="E82" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>16</v>
+      <c r="F82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.1076735177123741</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3938,133 +3938,145 @@
         <v>120</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="E83" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>16</v>
+      <c r="F83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.1315986578175456</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E84" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>16</v>
+      <c r="F84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.1714114712464571</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E85" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>16</v>
+      <c r="F85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.3250800993854617</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E86" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>16</v>
+      <c r="F86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.3689501692138874</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E87" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>16</v>
+      <c r="F87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.417085704374432</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E88" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>16</v>
+      <c r="F88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.492059220915993</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -4082,10 +4094,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -4103,7 +4115,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4124,7 +4136,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4145,16 +4157,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E93" s="1">
         <v>0.007014028056112225</v>
@@ -4166,228 +4178,216 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E94" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>16</v>
+      <c r="F94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.07048813309006827</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.007014028056112225</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E95" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>16</v>
+      <c r="F95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.08754697992105123</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.0102489019033675</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.0858302020996476</v>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.04210526315789474</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.1076735177123741</v>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.0576923076923077</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.1315986578175456</v>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.1714114712464571</v>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.3250800993854615</v>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.3689501692138873</v>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.417085704374432</v>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
         <v>0.007014028056112225</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.4920592209159932</v>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4773,7 +4773,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
